--- a/doc/SBプロジェクト学習進捗管理表.xlsx
+++ b/doc/SBプロジェクト学習進捗管理表.xlsx
@@ -1629,19 +1629,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="46" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="193" fontId="46" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="46" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="46" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1780,7 +1780,399 @@
     <cellStyle name="未定義" xfId="113"/>
     <cellStyle name="良い 2" xfId="114"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="65">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1957,7 +2349,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2023,7 +2415,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,7 +2433,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2091,25 +2483,25 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="300"/>
-        <c:axId val="95487104"/>
-        <c:axId val="95758592"/>
+        <c:axId val="74542464"/>
+        <c:axId val="95487488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95487104"/>
+        <c:axId val="74542464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95758592"/>
+        <c:crossAx val="95487488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95758592"/>
+        <c:axId val="95487488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,11 +2510,11 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95487104"/>
+        <c:crossAx val="74542464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000024E-2"/>
-        <c:minorUnit val="5.0000000000000053E-3"/>
+        <c:minorUnit val="5.0000000000000062E-3"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2130,7 +2522,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2541,7 +2933,7 @@
       </c>
       <c r="E2" s="18">
         <f>MAX(管理表!F:F)</f>
-        <v>42576</v>
+        <v>42579</v>
       </c>
     </row>
     <row r="4" spans="2:14">
@@ -2592,7 +2984,7 @@
       </c>
       <c r="G5" s="5">
         <f>E2-C2</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5" s="15">
         <f ca="1">TODAY()-管理表!K3</f>
@@ -2600,7 +2992,7 @@
       </c>
       <c r="I5" s="15">
         <f ca="1">G5-H5</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" s="13">
         <f ca="1">H5/G5</f>
@@ -2626,11 +3018,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:AC38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="7" topLeftCell="X8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight"/>
@@ -2880,11 +3272,11 @@
       <c r="H6" s="54"/>
       <c r="I6" s="4">
         <f>SUM(管理表!$I$8:$I$31)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" s="28">
         <f>SUM(J8:J31)</f>
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="K6" s="21"/>
       <c r="L6" s="2"/>
@@ -3031,18 +3423,18 @@
         <v>36</v>
       </c>
       <c r="D8" s="31">
-        <f>IF(COUNTA($K8:$W8),INDEX($K$3:$W$3,MATCH("○",$K8:$W8,0)),"")</f>
+        <f>IF(COUNTA($K8:$AC8),INDEX($K$3:$AC$3,MATCH("○",$K8:$AC8,0)),"")</f>
         <v>42564</v>
       </c>
-      <c r="E8" s="48" t="str">
+      <c r="E8" s="47" t="str">
         <f ca="1">IF(AND($D8&lt;TODAY(), $D9 =""),"○","")</f>
         <v/>
       </c>
       <c r="F8" s="31">
-        <f>IF(COUNTA($K8:$W8),INDEX($K$3:$W$3,MAX(IF(COUNT(K8:W8),MAX(MATCH(MAX(K8:W8)+1,K8:W8,1))),IF(COUNTIF(K8:W8,"*"),MATCH("",K8:W8,-1)))),"")</f>
+        <f>IF(COUNTA($K8:$AC8),INDEX($K$3:$AC$3,MAX(IF(COUNT(K8:AC8),MAX(MATCH(MAX(K8:AC8)+1,K8:AC8,1))),IF(COUNTIF(K8:AC8,"*"),MATCH("",K8:AC8,-1)))),"")</f>
         <v>42565</v>
       </c>
-      <c r="G8" s="47" t="str">
+      <c r="G8" s="48" t="str">
         <f ca="1">IF(AND($F8&lt;TODAY(), $F9 =""),"○","")</f>
         <v/>
       </c>
@@ -3051,11 +3443,11 @@
         <v/>
       </c>
       <c r="I8" s="30">
-        <f>COUNTIF($K8:$W8,"○")</f>
+        <f>COUNTIF($K8:$AC8,"○")</f>
         <v>2</v>
       </c>
       <c r="J8" s="33">
-        <f>COUNTA($K8:$W8)*8</f>
+        <f>COUNTA($K8:$AC8)*8</f>
         <v>16</v>
       </c>
       <c r="K8" s="23" t="s">
@@ -3082,7 +3474,7 @@
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
     </row>
-    <row r="9" spans="1:29" hidden="1">
+    <row r="9" spans="1:29">
       <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
@@ -3095,15 +3487,15 @@
         <v>CentOSのインストール</v>
       </c>
       <c r="D9" s="35" t="str">
-        <f>IF(COUNTA($K9:$W9),IF(COUNTIF($K9:$W9,"◇"),INDEX($K$3:$W$3,MATCH("◇",$K9:$W9,0)),INDEX($K$3:$W$3,MATCH("◆",$K9:$W9,0))),"")</f>
-        <v/>
-      </c>
-      <c r="E9" s="48"/>
+        <f>IF(COUNTA($K9:$AC9),IF(COUNTIF($K9:$AC9,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K9:$AC9,0)),INDEX($K$3:$AC$3,MATCH("◆",$K9:$AC9,0))),"")</f>
+        <v/>
+      </c>
+      <c r="E9" s="47"/>
       <c r="F9" s="35" t="str">
-        <f>IF(COUNTIF($K9:$W9,"◆"),INDEX($K$3:$W$3,MATCH("◆",$K9:$W9,0)),"")</f>
-        <v/>
-      </c>
-      <c r="G9" s="47"/>
+        <f>IF(COUNTIF($K9:$AC9,"◆"),INDEX($K$3:$AC$3,MATCH("◆",$K9:$AC9,0)),"")</f>
+        <v/>
+      </c>
+      <c r="G9" s="48"/>
       <c r="H9" s="32" t="str">
         <f>IF($F9&lt;&gt;"","○","")</f>
         <v/>
@@ -3141,31 +3533,31 @@
         <v>37</v>
       </c>
       <c r="D10" s="31">
-        <f>IF(COUNTA($K10:$W10),INDEX($K$3:$W$3,MATCH("○",$K10:$W10,0)),"")</f>
+        <f>IF(COUNTA($K10:$AC10),INDEX($K$3:$AC$3,MATCH("○",$K10:$AC10,0)),"")</f>
         <v>42565</v>
       </c>
-      <c r="E10" s="48" t="str">
+      <c r="E10" s="47" t="str">
         <f ca="1">IF(AND($D10&lt;TODAY(), $D11 =""),"○","")</f>
         <v/>
       </c>
       <c r="F10" s="31">
-        <f>IF(COUNTA($K10:$W10),INDEX($K$3:$W$3,MAX(IF(COUNT(K10:W10),MAX(MATCH(MAX(K10:W10)+1,K10:W10,1))),IF(COUNTIF(K10:W10,"*"),MATCH("",K10:W10,-1)))),"")</f>
+        <f>IF(COUNTA($K10:$AC10),INDEX($K$3:$AC$3,MAX(IF(COUNT(K10:AC10),MAX(MATCH(MAX(K10:AC10)+1,K10:AC10,1))),IF(COUNTIF(K10:AC10,"*"),MATCH("",K10:AC10,-1)))),"")</f>
         <v>42565</v>
       </c>
-      <c r="G10" s="47" t="str">
+      <c r="G10" s="48" t="str">
         <f ca="1">IF(AND($F10&lt;TODAY(), $F11 =""),"○","")</f>
         <v/>
       </c>
-      <c r="H10" s="32" t="str">
+      <c r="H10" s="46" t="str">
         <f>IF($F11&lt;&gt;"","○","")</f>
         <v/>
       </c>
       <c r="I10" s="30">
-        <f>COUNTIF($K10:$W10,"○")</f>
+        <f>COUNTIF($K10:$AC10,"○")</f>
         <v>1</v>
       </c>
       <c r="J10" s="33">
-        <f>COUNTA($K10:$W10)*8</f>
+        <f>COUNTA($K10:$AC10)*8</f>
         <v>8</v>
       </c>
       <c r="K10" s="23"/>
@@ -3190,7 +3582,7 @@
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
     </row>
-    <row r="11" spans="1:29" hidden="1">
+    <row r="11" spans="1:29">
       <c r="A11" s="24" t="s">
         <v>7</v>
       </c>
@@ -3203,16 +3595,16 @@
         <v>PostgreSQLのインストール</v>
       </c>
       <c r="D11" s="35" t="str">
-        <f>IF(COUNTA($K11:$W11),IF(COUNTIF($K11:$W11,"◇"),INDEX($K$3:$W$3,MATCH("◇",$K11:$W11,0)),INDEX($K$3:$W$3,MATCH("◆",$K11:$W11,0))),"")</f>
-        <v/>
-      </c>
-      <c r="E11" s="48"/>
+        <f>IF(COUNTA($K11:$AC11),IF(COUNTIF($K11:$AC11,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K11:$AC11,0)),INDEX($K$3:$AC$3,MATCH("◆",$K11:$AC11,0))),"")</f>
+        <v/>
+      </c>
+      <c r="E11" s="47"/>
       <c r="F11" s="35" t="str">
-        <f>IF(COUNTIF($K11:$W11,"◆"),INDEX($K$3:$W$3,MATCH("◆",K11:W11,0)),"")</f>
-        <v/>
-      </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="32" t="str">
+        <f>IF(COUNTIF($K11:$AC11,"◆"),INDEX($K$3:$AC$3,MATCH("◆",$K11:$AC11,0)),"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="46" t="str">
         <f>IF($F11&lt;&gt;"","○","")</f>
         <v/>
       </c>
@@ -3249,31 +3641,31 @@
         <v>38</v>
       </c>
       <c r="D12" s="31">
-        <f>IF(COUNTA($K12:$W12),INDEX($K$3:$W$3,MATCH("○",$K12:$W12,0)),"")</f>
+        <f>IF(COUNTA($K12:$AC12),INDEX($K$3:$AC$3,MATCH("○",$K12:$AC12,0)),"")</f>
         <v>42565</v>
       </c>
-      <c r="E12" s="48" t="str">
+      <c r="E12" s="47" t="str">
         <f ca="1">IF(AND($D12&lt;TODAY(), $D13 =""),"○","")</f>
         <v/>
       </c>
       <c r="F12" s="31">
-        <f>IF(COUNTA($K12:$W12),INDEX($K$3:$W$3,MAX(IF(COUNT(K12:W12),MAX(MATCH(MAX(K12:W12)+1,K12:W12,1))),IF(COUNTIF(K12:W12,"*"),MATCH("",K12:W12,-1)))),"")</f>
+        <f>IF(COUNTA($K12:$AC12),INDEX($K$3:$AC$3,MAX(IF(COUNT(K12:AC12),MAX(MATCH(MAX(K12:AC12)+1,K12:AC12,1))),IF(COUNTIF(K12:AC12,"*"),MATCH("",K12:AC12,-1)))),"")</f>
         <v>42565</v>
       </c>
-      <c r="G12" s="47" t="str">
+      <c r="G12" s="48" t="str">
         <f ca="1">IF(AND($F12&lt;TODAY(), $F13 =""),"○","")</f>
         <v/>
       </c>
-      <c r="H12" s="32" t="str">
+      <c r="H12" s="46" t="str">
         <f>IF($F13&lt;&gt;"","○","")</f>
         <v/>
       </c>
       <c r="I12" s="30">
-        <f>COUNTIF($K12:$W12,"○")</f>
+        <f>COUNTIF($K12:$AC12,"○")</f>
         <v>1</v>
       </c>
       <c r="J12" s="33">
-        <f>COUNTA($K12:$W12)*8</f>
+        <f>COUNTA($K12:$AC12)*8</f>
         <v>8</v>
       </c>
       <c r="K12" s="23"/>
@@ -3298,7 +3690,7 @@
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
     </row>
-    <row r="13" spans="1:29" hidden="1">
+    <row r="13" spans="1:29">
       <c r="A13" s="24" t="s">
         <v>7</v>
       </c>
@@ -3311,16 +3703,16 @@
         <v>MongoDBのインストール</v>
       </c>
       <c r="D13" s="35" t="str">
-        <f>IF(COUNTA($K13:$W13),IF(COUNTIF($K13:$W13,"◇"),INDEX($K$3:$W$3,MATCH("◇",$K13:$W13,0)),INDEX($K$3:$W$3,MATCH("◆",$K13:$W13,0))),"")</f>
-        <v/>
-      </c>
-      <c r="E13" s="48"/>
+        <f>IF(COUNTA($K13:$AC13),IF(COUNTIF($K13:$AC13,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K13:$AC13,0)),INDEX($K$3:$AC$3,MATCH("◆",$K13:$AC13,0))),"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="47"/>
       <c r="F13" s="35" t="str">
-        <f>IF(COUNTA($K13:$W13),INDEX($K$3:$W$3,MAX(IF(COUNT(K13:W13),MAX(MATCH(MAX(K13:W13)+1,K13:W13,1))),IF(COUNTIF(K13:W13,"*"),MATCH("",K13:W13,-1)))),"")</f>
-        <v/>
-      </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="32" t="str">
+        <f>IF(COUNTIF($K13:$AC13,"◆"),INDEX($K$3:$AC$3,MATCH("◆",$K13:$AC13,0)),"")</f>
+        <v/>
+      </c>
+      <c r="G13" s="48"/>
+      <c r="H13" s="46" t="str">
         <f>IF($F13&lt;&gt;"","○","")</f>
         <v/>
       </c>
@@ -3353,35 +3745,35 @@
       <c r="B14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="31">
-        <f>IF(COUNTA($K14:$W14),INDEX($K$3:$W$3,MATCH("○",$K14:$W14,0)),"")</f>
+        <f>IF(COUNTA($K14:$AC14),INDEX($K$3:$AC$3,MATCH("○",$K14:$AC14,0)),"")</f>
         <v>42566</v>
       </c>
-      <c r="E14" s="48" t="str">
+      <c r="E14" s="47" t="str">
         <f ca="1">IF(AND($D14&lt;TODAY(), $D15 =""),"○","")</f>
         <v/>
       </c>
       <c r="F14" s="31">
-        <f>IF(COUNTA($K14:$W14),INDEX($K$3:$W$3,MAX(IF(COUNT(K14:W14),MAX(MATCH(MAX(K14:W14)+1,K14:W14,1))),IF(COUNTIF(K14:W14,"*"),MATCH("",K14:W14,-1)))),"")</f>
+        <f>IF(COUNTA($K14:$AC14),INDEX($K$3:$AC$3,MAX(IF(COUNT(K14:AC14),MAX(MATCH(MAX(K14:AC14)+1,K14:AC14,1))),IF(COUNTIF(K14:AC14,"*"),MATCH("",K14:AC14,-1)))),"")</f>
         <v>42566</v>
       </c>
-      <c r="G14" s="47" t="str">
+      <c r="G14" s="48" t="str">
         <f ca="1">IF(AND($F14&lt;TODAY(), $F15 =""),"○","")</f>
         <v/>
       </c>
-      <c r="H14" s="32" t="str">
+      <c r="H14" s="46" t="str">
         <f>IF($F15&lt;&gt;"","○","")</f>
         <v/>
       </c>
       <c r="I14" s="30">
-        <f>COUNTIF($K14:$W14,"○")</f>
+        <f>COUNTIF($K14:$AC14,"○")</f>
         <v>1</v>
       </c>
       <c r="J14" s="33">
-        <f>COUNTA($K14:$W14)*8</f>
+        <f>COUNTA($K14:$AC14)*8</f>
         <v>8</v>
       </c>
       <c r="K14" s="23"/>
@@ -3406,7 +3798,7 @@
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
     </row>
-    <row r="15" spans="1:29" hidden="1">
+    <row r="15" spans="1:29">
       <c r="A15" s="24" t="s">
         <v>7</v>
       </c>
@@ -3414,21 +3806,21 @@
         <f>B14</f>
         <v>環境構築(サーバー)</v>
       </c>
-      <c r="C15" s="46" t="str">
+      <c r="C15" s="45" t="str">
         <f>C14</f>
         <v>Apache Tomcatの設定</v>
       </c>
       <c r="D15" s="35" t="str">
-        <f>IF(COUNTA($K15:$W15),IF(COUNTIF($K15:$W15,"◇"),INDEX($K$3:$W$3,MATCH("◇",$K15:$W15,0)),INDEX($K$3:$W$3,MATCH("◆",$K15:$W15,0))),"")</f>
-        <v/>
-      </c>
-      <c r="E15" s="48"/>
+        <f>IF(COUNTA($K15:$AC15),IF(COUNTIF($K15:$AC15,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K15:$AC15,0)),INDEX($K$3:$AC$3,MATCH("◆",$K15:$AC15,0))),"")</f>
+        <v/>
+      </c>
+      <c r="E15" s="47"/>
       <c r="F15" s="35" t="str">
-        <f>IF(COUNTIF($K15:$W15,"◆"),INDEX($K$3:$W$3,MATCH("◆",K15:W15,0)),"")</f>
-        <v/>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="32" t="str">
+        <f>IF(COUNTIF($K15:$AC15,"◆"),INDEX($K$3:$AC$3,MATCH("◆",$K15:$AC15,0)),"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="46" t="str">
         <f>IF($F15&lt;&gt;"","○","")</f>
         <v/>
       </c>
@@ -3461,35 +3853,35 @@
       <c r="B16" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="31">
-        <f>IF(COUNTA($K16:$W16),INDEX($K$3:$W$3,MATCH("○",$K16:$W16,0)),"")</f>
+        <f>IF(COUNTA($K16:$AC16),INDEX($K$3:$AC$3,MATCH("○",$K16:$AC16,0)),"")</f>
         <v>42566</v>
       </c>
-      <c r="E16" s="48" t="str">
+      <c r="E16" s="47" t="str">
         <f ca="1">IF(AND($D16&lt;TODAY(), $D17 =""),"○","")</f>
         <v/>
       </c>
       <c r="F16" s="31">
-        <f>IF(COUNTA($K16:$W16),INDEX($K$3:$W$3,MAX(IF(COUNT(K16:W16),MAX(MATCH(MAX(K16:W16)+1,K16:W16,1))),IF(COUNTIF(K16:W16,"*"),MATCH("",K16:W16,-1)))),"")</f>
+        <f>IF(COUNTA($K16:$AC16),INDEX($K$3:$AC$3,MAX(IF(COUNT(K16:AC16),MAX(MATCH(MAX(K16:AC16)+1,K16:AC16,1))),IF(COUNTIF(K16:AC16,"*"),MATCH("",K16:AC16,-1)))),"")</f>
         <v>42566</v>
       </c>
-      <c r="G16" s="47" t="str">
+      <c r="G16" s="48" t="str">
         <f ca="1">IF(AND($F16&lt;TODAY(), $F17 =""),"○","")</f>
         <v/>
       </c>
-      <c r="H16" s="32" t="str">
+      <c r="H16" s="46" t="str">
         <f>IF($F17&lt;&gt;"","○","")</f>
         <v/>
       </c>
       <c r="I16" s="30">
-        <f>COUNTIF($K16:$W16,"○")</f>
+        <f>COUNTIF($K16:$AC16,"○")</f>
         <v>1</v>
       </c>
       <c r="J16" s="33">
-        <f>COUNTA($K16:$W16)*8</f>
+        <f>COUNTA($K16:$AC16)*8</f>
         <v>8</v>
       </c>
       <c r="K16" s="23"/>
@@ -3514,7 +3906,7 @@
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
     </row>
-    <row r="17" spans="1:29" hidden="1">
+    <row r="17" spans="1:29">
       <c r="A17" s="24" t="s">
         <v>7</v>
       </c>
@@ -3522,21 +3914,21 @@
         <f>B16</f>
         <v>環境構築(サーバー)</v>
       </c>
-      <c r="C17" s="46" t="str">
+      <c r="C17" s="45" t="str">
         <f>C16</f>
         <v>Apache Strutsの設定</v>
       </c>
       <c r="D17" s="35" t="str">
-        <f>IF(COUNTA($K17:$W17),IF(COUNTIF($K17:$W17,"◇"),INDEX($K$3:$W$3,MATCH("◇",$K17:$W17,0)),INDEX($K$3:$W$3,MATCH("◆",$K17:$W17,0))),"")</f>
-        <v/>
-      </c>
-      <c r="E17" s="48"/>
+        <f>IF(COUNTA($K17:$AC17),IF(COUNTIF($K17:$AC17,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K17:$AC17,0)),INDEX($K$3:$AC$3,MATCH("◆",$K17:$AC17,0))),"")</f>
+        <v/>
+      </c>
+      <c r="E17" s="47"/>
       <c r="F17" s="35" t="str">
-        <f>IF(COUNTA($K17:$W17),INDEX($K$3:$W$3,MAX(IF(COUNT(K17:W17),MAX(MATCH(MAX(K17:W17)+1,K17:W17,1))),IF(COUNTIF(K17:W17,"*"),MATCH("",K17:W17,-1)))),"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="32" t="str">
+        <f>IF(COUNTIF($K17:$AC17,"◆"),INDEX($K$3:$AC$3,MATCH("◆",$K17:$AC17,0)),"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="48"/>
+      <c r="H17" s="46" t="str">
         <f>IF($F17&lt;&gt;"","○","")</f>
         <v/>
       </c>
@@ -3569,35 +3961,35 @@
       <c r="B18" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="44" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="31">
-        <f>IF(COUNTA($K18:$W18),INDEX($K$3:$W$3,MATCH("○",$K18:$W18,0)),"")</f>
+        <f>IF(COUNTA($K18:$AC18),INDEX($K$3:$AC$3,MATCH("○",$K18:$AC18,0)),"")</f>
         <v>42564</v>
       </c>
-      <c r="E18" s="48" t="str">
+      <c r="E18" s="47" t="str">
         <f ca="1">IF(AND($D18&lt;TODAY(), $D19 =""),"○","")</f>
         <v/>
       </c>
       <c r="F18" s="31">
-        <f>IF(COUNTA($K18:$W18),INDEX($K$3:$W$3,MAX(IF(COUNT(K18:W18),MAX(MATCH(MAX(K18:W18)+1,K18:W18,1))),IF(COUNTIF(K18:W18,"*"),MATCH("",K18:W18,-1)))),"")</f>
+        <f>IF(COUNTA($K18:$AC18),INDEX($K$3:$AC$3,MAX(IF(COUNT(K18:AC18),MAX(MATCH(MAX(K18:AC18)+1,K18:AC18,1))),IF(COUNTIF(K18:AC18,"*"),MATCH("",K18:AC18,-1)))),"")</f>
         <v>42564</v>
       </c>
-      <c r="G18" s="47" t="str">
+      <c r="G18" s="48" t="str">
         <f ca="1">IF(AND($F18&lt;TODAY(), $F19 =""),"○","")</f>
         <v/>
       </c>
-      <c r="H18" s="32" t="str">
+      <c r="H18" s="46" t="str">
         <f>IF($F19&lt;&gt;"","○","")</f>
         <v/>
       </c>
       <c r="I18" s="30">
-        <f>COUNTIF($K18:$W18,"○")</f>
+        <f>COUNTIF($K18:$AC18,"○")</f>
         <v>1</v>
       </c>
       <c r="J18" s="33">
-        <f>COUNTA($K18:$W18)*8</f>
+        <f>COUNTA($K18:$AC18)*8</f>
         <v>8</v>
       </c>
       <c r="K18" s="23" t="s">
@@ -3622,7 +4014,7 @@
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
     </row>
-    <row r="19" spans="1:29" hidden="1">
+    <row r="19" spans="1:29">
       <c r="A19" s="24" t="s">
         <v>7</v>
       </c>
@@ -3630,21 +4022,21 @@
         <f>B18</f>
         <v>環境構築(開発機)</v>
       </c>
-      <c r="C19" s="46" t="str">
+      <c r="C19" s="45" t="str">
         <f>C18</f>
         <v>Apache Solrの設定</v>
       </c>
       <c r="D19" s="35" t="str">
-        <f>IF(COUNTA($K19:$W19),IF(COUNTIF($K19:$W19,"◇"),INDEX($K$3:$W$3,MATCH("◇",$K19:$W19,0)),INDEX($K$3:$W$3,MATCH("◆",$K19:$W19,0))),"")</f>
-        <v/>
-      </c>
-      <c r="E19" s="48"/>
+        <f>IF(COUNTA($K19:$AC19),IF(COUNTIF($K19:$AC19,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K19:$AC19,0)),INDEX($K$3:$AC$3,MATCH("◆",$K19:$AC19,0))),"")</f>
+        <v/>
+      </c>
+      <c r="E19" s="47"/>
       <c r="F19" s="35" t="str">
-        <f>IF(COUNTIF($K19:$W19,"◆"),INDEX($K$3:$W$3,MATCH("◆",K19:W19,0)),"")</f>
-        <v/>
-      </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="32" t="str">
+        <f>IF(COUNTIF($K19:$AC19,"◆"),INDEX($K$3:$AC$3,MATCH("◆",$K19:$AC19,0)),"")</f>
+        <v/>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="H19" s="46" t="str">
         <f>IF($F19&lt;&gt;"","○","")</f>
         <v/>
       </c>
@@ -3677,35 +4069,35 @@
       <c r="B20" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="31">
-        <f>IF(COUNTA($K20:$W20),INDEX($K$3:$W$3,MATCH("○",$K20:$W20,0)),"")</f>
+        <f>IF(COUNTA($K20:$AC20),INDEX($K$3:$AC$3,MATCH("○",$K20:$AC20,0)),"")</f>
         <v>42565</v>
       </c>
-      <c r="E20" s="48" t="str">
+      <c r="E20" s="47" t="str">
         <f t="shared" ref="E20" ca="1" si="20">IF(AND($D20&lt;TODAY(), $D21 =""),"○","")</f>
         <v/>
       </c>
       <c r="F20" s="31">
-        <f>IF(COUNTA($K20:$W20),INDEX($K$3:$W$3,MAX(IF(COUNT(K20:W20),MAX(MATCH(MAX(K20:W20)+1,K20:W20,1))),IF(COUNTIF(K20:W20,"*"),MATCH("",K20:W20,-1)))),"")</f>
+        <f>IF(COUNTA($K20:$AC20),INDEX($K$3:$AC$3,MAX(IF(COUNT(K20:AC20),MAX(MATCH(MAX(K20:AC20)+1,K20:AC20,1))),IF(COUNTIF(K20:AC20,"*"),MATCH("",K20:AC20,-1)))),"")</f>
         <v>42565</v>
       </c>
-      <c r="G20" s="47" t="str">
+      <c r="G20" s="48" t="str">
         <f t="shared" ref="G20" ca="1" si="21">IF(AND($F20&lt;TODAY(), $F21 =""),"○","")</f>
         <v/>
       </c>
-      <c r="H20" s="32" t="str">
+      <c r="H20" s="46" t="str">
         <f>IF($F21&lt;&gt;"","○","")</f>
         <v/>
       </c>
       <c r="I20" s="30">
-        <f>COUNTIF($K20:$W20,"○")</f>
+        <f>COUNTIF($K20:$AC20,"○")</f>
         <v>1</v>
       </c>
       <c r="J20" s="33">
-        <f>COUNTA($K20:$W20)*8</f>
+        <f>COUNTA($K20:$AC20)*8</f>
         <v>8</v>
       </c>
       <c r="K20" s="23"/>
@@ -3730,7 +4122,7 @@
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
     </row>
-    <row r="21" spans="1:29" hidden="1">
+    <row r="21" spans="1:29">
       <c r="A21" s="24" t="s">
         <v>7</v>
       </c>
@@ -3738,21 +4130,21 @@
         <f>B20</f>
         <v>環境構築(開発機)</v>
       </c>
-      <c r="C21" s="46" t="str">
+      <c r="C21" s="45" t="str">
         <f>C20</f>
         <v>Apache Nutchの設定</v>
       </c>
       <c r="D21" s="35" t="str">
-        <f>IF(COUNTA($K21:$W21),IF(COUNTIF($K21:$W21,"◇"),INDEX($K$3:$W$3,MATCH("◇",$K21:$W21,-1)),INDEX($K$3:$W$3,MATCH("◆",$K21:$W21,-1))),"")</f>
-        <v/>
-      </c>
-      <c r="E21" s="48"/>
+        <f>IF(COUNTA($K21:$AC21),IF(COUNTIF($K21:$AC21,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K21:$AC21,0)),INDEX($K$3:$AC$3,MATCH("◆",$K21:$AC21,0))),"")</f>
+        <v/>
+      </c>
+      <c r="E21" s="47"/>
       <c r="F21" s="35" t="str">
-        <f>IF(COUNTA($K21:$W21),INDEX($K$3:$W$3,MAX(IF(COUNT(K21:W21),MAX(MATCH(MAX(K21:W21)+1,K21:W21,1))),IF(COUNTIF(K21:W21,"*"),MATCH("",K21:W21,-1)))),"")</f>
-        <v/>
-      </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="32" t="str">
+        <f>IF(COUNTIF($K21:$AC21,"◆"),INDEX($K$3:$AC$3,MATCH("◆",$K21:$AC21,0)),"")</f>
+        <v/>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="46" t="str">
         <f>IF($F21&lt;&gt;"","○","")</f>
         <v/>
       </c>
@@ -3785,35 +4177,35 @@
       <c r="B22" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="44" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="31">
-        <f>IF(COUNTA($K22:$W22),INDEX($K$3:$W$3,MATCH("○",$K22:$W22,0)),"")</f>
+        <f>IF(COUNTA($K22:$AC22),INDEX($K$3:$AC$3,MATCH("○",$K22:$AC22,0)),"")</f>
         <v>42566</v>
       </c>
-      <c r="E22" s="48" t="str">
+      <c r="E22" s="47" t="str">
         <f ca="1">IF(AND($D22&lt;TODAY(), $D23 =""),"○","")</f>
         <v/>
       </c>
       <c r="F22" s="31">
-        <f>IF(COUNTA($K22:$W22),INDEX($K$3:$W$3,MAX(IF(COUNT(K22:W22),MAX(MATCH(MAX(K22:W22)+1,K22:W22,1))),IF(COUNTIF(K22:W22,"*"),MATCH("",K22:W22,-1)))),"")</f>
+        <f>IF(COUNTA($K22:$AC22),INDEX($K$3:$AC$3,MAX(IF(COUNT(K22:AC22),MAX(MATCH(MAX(K22:AC22)+1,K22:AC22,1))),IF(COUNTIF(K22:AC22,"*"),MATCH("",K22:AC22,-1)))),"")</f>
         <v>42566</v>
       </c>
-      <c r="G22" s="47" t="str">
+      <c r="G22" s="48" t="str">
         <f ca="1">IF(AND($F22&lt;TODAY(), $F23 =""),"○","")</f>
         <v/>
       </c>
-      <c r="H22" s="32" t="str">
+      <c r="H22" s="46" t="str">
         <f>IF($F23&lt;&gt;"","○","")</f>
         <v/>
       </c>
       <c r="I22" s="30">
-        <f>COUNTIF($K22:$W22,"○")</f>
+        <f>COUNTIF($K22:$AC22,"○")</f>
         <v>1</v>
       </c>
       <c r="J22" s="33">
-        <f>COUNTA($K22:$W22)*8</f>
+        <f>COUNTA($K22:$AC22)*8</f>
         <v>8</v>
       </c>
       <c r="K22" s="23"/>
@@ -3838,7 +4230,7 @@
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
     </row>
-    <row r="23" spans="1:29" hidden="1">
+    <row r="23" spans="1:29">
       <c r="A23" s="24" t="s">
         <v>7</v>
       </c>
@@ -3846,21 +4238,21 @@
         <f>B22</f>
         <v>システム開発</v>
       </c>
-      <c r="C23" s="46" t="str">
+      <c r="C23" s="45" t="str">
         <f>C22</f>
         <v>Hello worldの作成</v>
       </c>
       <c r="D23" s="35" t="str">
-        <f>IF(COUNTA($K23:$W23),IF(COUNTIF($K23:$W23,"◇"),INDEX($K$3:$W$3,MATCH("◇",$K23:$W23,0)),INDEX($K$3:$W$3,MATCH("◆",$K23:$W23,0))),"")</f>
-        <v/>
-      </c>
-      <c r="E23" s="48"/>
+        <f>IF(COUNTA($K23:$AC23),IF(COUNTIF($K23:$AC23,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K23:$AC23,0)),INDEX($K$3:$AC$3,MATCH("◆",$K23:$AC23,0))),"")</f>
+        <v/>
+      </c>
+      <c r="E23" s="47"/>
       <c r="F23" s="35" t="str">
-        <f>IF(COUNTIF($K23:$W23,"◆"),INDEX($K$3:$W$3,MATCH("◆",K23:W23,0)),"")</f>
-        <v/>
-      </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="32" t="str">
+        <f>IF(COUNTIF($K23:$AC23,"◆"),INDEX($K$3:$AC$3,MATCH("◆",$K23:$AC23,0)),"")</f>
+        <v/>
+      </c>
+      <c r="G23" s="48"/>
+      <c r="H23" s="46" t="str">
         <f>IF($F23&lt;&gt;"","○","")</f>
         <v/>
       </c>
@@ -3893,35 +4285,35 @@
       <c r="B24" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="31">
-        <f>IF(COUNTA($K24:$W24),INDEX($K$3:$W$3,MATCH("○",$K24:$W24,0)),"")</f>
+        <f>IF(COUNTA($K24:$AC24),INDEX($K$3:$AC$3,MATCH("○",$K24:$AC24,0)),"")</f>
         <v>42576</v>
       </c>
-      <c r="E24" s="48" t="str">
+      <c r="E24" s="47" t="str">
         <f ca="1">IF(AND($D24&lt;TODAY(), $D25 =""),"○","")</f>
         <v/>
       </c>
       <c r="F24" s="31">
-        <f>IF(COUNTA($K24:$W24),INDEX($K$3:$W$3,MAX(IF(COUNT(K24:W24),MAX(MATCH(MAX(K24:W24)+1,K24:W24,1))),IF(COUNTIF(K24:W24,"*"),MATCH("",K24:W24,-1)))),"")</f>
+        <f>IF(COUNTA($K24:$AC24),INDEX($K$3:$AC$3,MAX(IF(COUNT(K24:AC24),MAX(MATCH(MAX(K24:AC24)+1,K24:AC24,1))),IF(COUNTIF(K24:AC24,"*"),MATCH("",K24:AC24,-1)))),"")</f>
         <v>42576</v>
       </c>
-      <c r="G24" s="47" t="str">
+      <c r="G24" s="48" t="str">
         <f ca="1">IF(AND($F24&lt;TODAY(), $F25 =""),"○","")</f>
         <v/>
       </c>
-      <c r="H24" s="32" t="str">
+      <c r="H24" s="46" t="str">
         <f>IF($F25&lt;&gt;"","○","")</f>
         <v/>
       </c>
       <c r="I24" s="30">
-        <f>COUNTIF($K24:$W24,"○")</f>
+        <f>COUNTIF($K24:$AC24,"○")</f>
         <v>1</v>
       </c>
       <c r="J24" s="33">
-        <f>COUNTA($K24:$W24)*8</f>
+        <f>COUNTA($K24:$AC24)*8</f>
         <v>8</v>
       </c>
       <c r="K24" s="23"/>
@@ -3946,7 +4338,7 @@
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
     </row>
-    <row r="25" spans="1:29" hidden="1">
+    <row r="25" spans="1:29">
       <c r="A25" s="24" t="s">
         <v>7</v>
       </c>
@@ -3954,21 +4346,21 @@
         <f>B24</f>
         <v>システム開発</v>
       </c>
-      <c r="C25" s="46" t="str">
+      <c r="C25" s="45" t="str">
         <f>C24</f>
         <v>Apache Solrについての調査</v>
       </c>
       <c r="D25" s="35" t="str">
-        <f>IF(COUNTA($K25:$W25),IF(COUNTIF($K25:$W25,"◇"),INDEX($K$3:$W$3,MATCH("◇",$K25:$W25,0)),INDEX($K$3:$W$3,MATCH("◆",$K25:$W25,0))),"")</f>
-        <v/>
-      </c>
-      <c r="E25" s="48"/>
+        <f>IF(COUNTA($K25:$AC25),IF(COUNTIF($K25:$AC25,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K25:$AC25,0)),INDEX($K$3:$AC$3,MATCH("◆",$K25:$AC25,0))),"")</f>
+        <v/>
+      </c>
+      <c r="E25" s="47"/>
       <c r="F25" s="35" t="str">
-        <f>IF(COUNTIF($K25:$W25,"◆"),INDEX($K$3:$W$3,MATCH("◆",K25:W25,0)),"")</f>
-        <v/>
-      </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="32" t="str">
+        <f>IF(COUNTIF($K25:$AC25,"◆"),INDEX($K$3:$AC$3,MATCH("◆",$K25:$AC25,0)),"")</f>
+        <v/>
+      </c>
+      <c r="G25" s="48"/>
+      <c r="H25" s="46" t="str">
         <f>IF($F25&lt;&gt;"","○","")</f>
         <v/>
       </c>
@@ -4001,36 +4393,36 @@
       <c r="B26" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="31" t="str">
-        <f>IF(COUNTA($K26:$W26),INDEX($K$3:$W$3,MATCH("○",$K26:$W26,0)),"")</f>
-        <v/>
-      </c>
-      <c r="E26" s="48" t="str">
+      <c r="D26" s="31">
+        <f>IF(COUNTA($K26:$AC26),INDEX($K$3:$AC$3,MATCH("○",$K26:$AC26,0)),"")</f>
+        <v>42577</v>
+      </c>
+      <c r="E26" s="47" t="str">
         <f ca="1">IF(AND($D26&lt;TODAY(), $D27 =""),"○","")</f>
         <v/>
       </c>
-      <c r="F26" s="31" t="str">
-        <f>IF(COUNTA($K26:$W26),INDEX($K$3:$W$3,MAX(IF(COUNT(K26:W26),MAX(MATCH(MAX(K26:W26)+1,K26:W26,1))),IF(COUNTIF(K26:W26,"*"),MATCH("",K26:W26,-1)))),"")</f>
-        <v/>
-      </c>
-      <c r="G26" s="47" t="str">
+      <c r="F26" s="31">
+        <f>IF(COUNTA($K26:$AC26),INDEX($K$3:$AC$3,MAX(IF(COUNT(K26:AC26),MAX(MATCH(MAX(K26:AC26)+1,K26:AC26,1))),IF(COUNTIF(K26:AC26,"*"),MATCH("",K26:AC26,-1)))),"")</f>
+        <v>42577</v>
+      </c>
+      <c r="G26" s="48" t="str">
         <f ca="1">IF(AND($F26&lt;TODAY(), $F27 =""),"○","")</f>
         <v/>
       </c>
-      <c r="H26" s="44" t="str">
+      <c r="H26" s="46" t="str">
         <f>IF($F27&lt;&gt;"","○","")</f>
         <v/>
       </c>
       <c r="I26" s="30">
-        <f>COUNTIF($K26:$W26,"○")</f>
-        <v>0</v>
+        <f>COUNTIF($K26:$AC26,"○")</f>
+        <v>1</v>
       </c>
       <c r="J26" s="33">
-        <f>COUNTA($K26:$W26)*8</f>
-        <v>0</v>
+        <f>COUNTA($K26:$AC26)*8</f>
+        <v>8</v>
       </c>
       <c r="K26" s="23"/>
       <c r="L26" s="10"/>
@@ -4054,7 +4446,7 @@
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
     </row>
-    <row r="27" spans="1:29" ht="24" hidden="1">
+    <row r="27" spans="1:29" ht="24">
       <c r="A27" s="24" t="s">
         <v>7</v>
       </c>
@@ -4062,21 +4454,21 @@
         <f>B26</f>
         <v>システム開発</v>
       </c>
-      <c r="C27" s="46" t="str">
+      <c r="C27" s="45" t="str">
         <f>C26</f>
         <v>Apache Solrを利用したプログラムの開発</v>
       </c>
       <c r="D27" s="35" t="str">
-        <f>IF(COUNTA($K27:$W27),IF(COUNTIF($K27:$W27,"◇"),INDEX($K$3:$W$3,MATCH("◇",$K27:$W27,0)),INDEX($K$3:$W$3,MATCH("◆",$K27:$W27,0))),"")</f>
-        <v/>
-      </c>
-      <c r="E27" s="48"/>
+        <f>IF(COUNTA($K27:$AC27),IF(COUNTIF($K27:$AC27,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K27:$AC27,0)),INDEX($K$3:$AC$3,MATCH("◆",$K27:$AC27,0))),"")</f>
+        <v/>
+      </c>
+      <c r="E27" s="47"/>
       <c r="F27" s="35" t="str">
-        <f>IF(COUNTIF($K27:$W27,"◆"),INDEX($K$3:$W$3,MATCH("◆",K27:W27,0)),"")</f>
-        <v/>
-      </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="44" t="str">
+        <f>IF(COUNTIF($K27:$AC27,"◆"),INDEX($K$3:$AC$3,MATCH("◆",$K27:$AC27,0)),"")</f>
+        <v/>
+      </c>
+      <c r="G27" s="48"/>
+      <c r="H27" s="46" t="str">
         <f>IF($F27&lt;&gt;"","○","")</f>
         <v/>
       </c>
@@ -4109,36 +4501,36 @@
       <c r="B28" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="31" t="str">
-        <f>IF(COUNTA($K28:$W28),INDEX($K$3:$W$3,MATCH("○",$K28:$W28,0)),"")</f>
-        <v/>
-      </c>
-      <c r="E28" s="48" t="str">
+      <c r="D28" s="31">
+        <f>IF(COUNTA($K28:$AC28),INDEX($K$3:$AC$3,MATCH("○",$K28:$AC28,0)),"")</f>
+        <v>42578</v>
+      </c>
+      <c r="E28" s="47" t="str">
         <f ca="1">IF(AND($D28&lt;TODAY(), $D29 =""),"○","")</f>
         <v/>
       </c>
-      <c r="F28" s="31" t="str">
-        <f>IF(COUNTA($K28:$W28),INDEX($K$3:$W$3,MAX(IF(COUNT(K28:W28),MAX(MATCH(MAX(K28:W28)+1,K28:W28,1))),IF(COUNTIF(K28:W28,"*"),MATCH("",K28:W28,-1)))),"")</f>
-        <v/>
-      </c>
-      <c r="G28" s="47" t="str">
+      <c r="F28" s="31">
+        <f>IF(COUNTA($K28:$AC28),INDEX($K$3:$AC$3,MAX(IF(COUNT(K28:AC28),MAX(MATCH(MAX(K28:AC28)+1,K28:AC28,1))),IF(COUNTIF(K28:AC28,"*"),MATCH("",K28:AC28,-1)))),"")</f>
+        <v>42578</v>
+      </c>
+      <c r="G28" s="48" t="str">
         <f ca="1">IF(AND($F28&lt;TODAY(), $F29 =""),"○","")</f>
         <v/>
       </c>
-      <c r="H28" s="44" t="str">
+      <c r="H28" s="46" t="str">
         <f>IF($F29&lt;&gt;"","○","")</f>
         <v/>
       </c>
       <c r="I28" s="30">
-        <f>COUNTIF($K28:$W28,"○")</f>
-        <v>0</v>
+        <f>COUNTIF($K28:$AC28,"○")</f>
+        <v>1</v>
       </c>
       <c r="J28" s="33">
-        <f>COUNTA($K28:$W28)*8</f>
-        <v>0</v>
+        <f>COUNTA($K28:$AC28)*8</f>
+        <v>8</v>
       </c>
       <c r="K28" s="23"/>
       <c r="L28" s="10"/>
@@ -4162,7 +4554,7 @@
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
     </row>
-    <row r="29" spans="1:29" hidden="1">
+    <row r="29" spans="1:29">
       <c r="A29" s="24" t="s">
         <v>7</v>
       </c>
@@ -4170,21 +4562,21 @@
         <f>B28</f>
         <v>システム開発</v>
       </c>
-      <c r="C29" s="46" t="str">
+      <c r="C29" s="45" t="str">
         <f>C28</f>
         <v>Apache Nutchの調査</v>
       </c>
       <c r="D29" s="35" t="str">
-        <f>IF(COUNTA($K29:$W29),IF(COUNTIF($K29:$W29,"◇"),INDEX($K$3:$W$3,MATCH("◇",$K29:$W29,0)),INDEX($K$3:$W$3,MATCH("◆",$K29:$W29,0))),"")</f>
-        <v/>
-      </c>
-      <c r="E29" s="48"/>
+        <f>IF(COUNTA($K29:$AC29),IF(COUNTIF($K29:$AC29,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K29:$AC29,0)),INDEX($K$3:$AC$3,MATCH("◆",$K29:$AC29,0))),"")</f>
+        <v/>
+      </c>
+      <c r="E29" s="47"/>
       <c r="F29" s="35" t="str">
-        <f>IF(COUNTIF($K29:$W29,"◆"),INDEX($K$3:$W$3,MATCH("◆",K29:W29,0)),"")</f>
-        <v/>
-      </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="44" t="str">
+        <f>IF(COUNTIF($K29:$AC29,"◆"),INDEX($K$3:$AC$3,MATCH("◆",$K29:$AC29,0)),"")</f>
+        <v/>
+      </c>
+      <c r="G29" s="48"/>
+      <c r="H29" s="46" t="str">
         <f>IF($F29&lt;&gt;"","○","")</f>
         <v/>
       </c>
@@ -4217,36 +4609,36 @@
       <c r="B30" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="31" t="str">
-        <f>IF(COUNTA($K30:$W30),INDEX($K$3:$W$3,MATCH("○",$K30:$W30,0)),"")</f>
-        <v/>
-      </c>
-      <c r="E30" s="48" t="str">
+      <c r="D30" s="31">
+        <f>IF(COUNTA($K30:$AC30),INDEX($K$3:$AC$3,MATCH("○",$K30:$AC30,0)),"")</f>
+        <v>42579</v>
+      </c>
+      <c r="E30" s="47" t="str">
         <f ca="1">IF(AND($D30&lt;TODAY(), $D31 =""),"○","")</f>
         <v/>
       </c>
-      <c r="F30" s="31" t="str">
-        <f>IF(COUNTA($K30:$W30),INDEX($K$3:$W$3,MAX(IF(COUNT(K30:W30),MAX(MATCH(MAX(K30:W30)+1,K30:W30,1))),IF(COUNTIF(K30:W30,"*"),MATCH("",K30:W30,-1)))),"")</f>
-        <v/>
-      </c>
-      <c r="G30" s="47" t="str">
+      <c r="F30" s="31">
+        <f>IF(COUNTA($K30:$AC30),INDEX($K$3:$AC$3,MAX(IF(COUNT(K30:AC30),MAX(MATCH(MAX(K30:AC30)+1,K30:AC30,1))),IF(COUNTIF(K30:AC30,"*"),MATCH("",K30:AC30,-1)))),"")</f>
+        <v>42579</v>
+      </c>
+      <c r="G30" s="48" t="str">
         <f ca="1">IF(AND($F30&lt;TODAY(), $F31 =""),"○","")</f>
         <v/>
       </c>
-      <c r="H30" s="32" t="str">
+      <c r="H30" s="46" t="str">
         <f>IF($F31&lt;&gt;"","○","")</f>
         <v/>
       </c>
       <c r="I30" s="30">
-        <f>COUNTIF($K30:$W30,"○")</f>
-        <v>0</v>
+        <f>COUNTIF($K30:$AC30,"○")</f>
+        <v>1</v>
       </c>
       <c r="J30" s="33">
-        <f>COUNTA($K30:$W30)*8</f>
-        <v>0</v>
+        <f>COUNTA($K30:$AC30)*8</f>
+        <v>8</v>
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="10"/>
@@ -4270,7 +4662,7 @@
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
     </row>
-    <row r="31" spans="1:29" ht="24" hidden="1">
+    <row r="31" spans="1:29" ht="24">
       <c r="A31" s="24" t="s">
         <v>7</v>
       </c>
@@ -4278,21 +4670,21 @@
         <f>B30</f>
         <v>システム開発</v>
       </c>
-      <c r="C31" s="46" t="str">
+      <c r="C31" s="45" t="str">
         <f>C30</f>
         <v>Apache Nutchを利用したプログラムの開発</v>
       </c>
       <c r="D31" s="35" t="str">
-        <f>IF(COUNTA($K31:$W31),IF(COUNTIF($K31:$W31,"◇"),INDEX($K$3:$W$3,MATCH("◇",$K31:$W31,0)),INDEX($K$3:$W$3,MATCH("◆",$K31:$W31,0))),"")</f>
-        <v/>
-      </c>
-      <c r="E31" s="48"/>
+        <f>IF(COUNTA($K31:$AC31),IF(COUNTIF($K31:$AC31,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K31:$AC31,0)),INDEX($K$3:$AC$3,MATCH("◆",$K31:$AC31,0))),"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="47"/>
       <c r="F31" s="35" t="str">
-        <f>IF(COUNTIF($K31:$W31,"◆"),INDEX($K$3:$W$3,MATCH("◆",K31:W31,0)),"")</f>
-        <v/>
-      </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="32" t="str">
+        <f>IF(COUNTIF($K31:$AC31,"◆"),INDEX($K$3:$AC$3,MATCH("◆",$K31:$AC31,0)),"")</f>
+        <v/>
+      </c>
+      <c r="G31" s="48"/>
+      <c r="H31" s="46" t="str">
         <f>IF($F31&lt;&gt;"","○","")</f>
         <v/>
       </c>
@@ -4343,11 +4735,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:AA31">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="予定"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="0"/>
     <filterColumn colId="16"/>
     <filterColumn colId="17"/>
     <filterColumn colId="18"/>
@@ -4356,11 +4744,12 @@
     <filterColumn colId="21"/>
   </autoFilter>
   <mergeCells count="27">
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A3:C6"/>
@@ -4377,44 +4766,98 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="D9:D31">
-    <cfRule type="expression" dxfId="8" priority="21">
+    <cfRule type="expression" dxfId="64" priority="32">
       <formula>$E9="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F31">
-    <cfRule type="expression" dxfId="7" priority="20">
+    <cfRule type="expression" dxfId="63" priority="31">
       <formula>$G9="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:AC31">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="62" priority="13">
       <formula>K$3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="61" priority="14">
       <formula>K$6 =  "休"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="36">
+    <cfRule type="expression" dxfId="60" priority="47">
       <formula>K$6 = "祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="37">
+    <cfRule type="expression" dxfId="59" priority="48">
       <formula>K$7 = "日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="58" priority="49">
       <formula>K$7 =  "土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="57" priority="12">
+      <formula>$G8="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="31" priority="11">
+      <formula>$G10="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="28" priority="10">
+      <formula>$G12="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="25" priority="9">
+      <formula>$G14="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="22" priority="8">
+      <formula>$G16="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="19" priority="7">
+      <formula>$G18="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="16" priority="6">
+      <formula>$G20="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="13" priority="5">
+      <formula>$G22="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>$G24="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$G26="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$G28="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$G8="○"</formula>
+      <formula>$G30="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -4433,10 +4876,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>
-  <ignoredErrors>
-    <ignoredError sqref="J8 J12 J16 J20 J24" unlockedFormula="1"/>
-    <ignoredError sqref="D9:F9 D8:E8 D10:E13 D15:E15 E14 E16 D17:E25 D30:E31 H30:H31 H9:H25" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4706,7 +5145,7 @@
   </sheetData>
   <phoneticPr fontId="60"/>
   <conditionalFormatting sqref="A2:F11">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>$B2 = "完了"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/SBプロジェクト学習進捗管理表.xlsx
+++ b/doc/SBプロジェクト学習進捗管理表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>開始</t>
     <rPh sb="0" eb="2">
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>休</t>
+  </si>
+  <si>
+    <t>◇</t>
+  </si>
+  <si>
+    <t>◆</t>
   </si>
 </sst>
 </file>
@@ -2328,10 +2334,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2473,7 +2479,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2972,15 +2978,15 @@
       </c>
       <c r="C5" s="5">
         <f>COUNTIF(管理表!H:H,"○")/2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5">
         <f>B5-C5</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="13">
         <f>C5/B5</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G5" s="5">
         <f>E2-C2</f>
@@ -3022,7 +3028,7 @@
   <dimension ref="A2:AC38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="7" topLeftCell="X8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight"/>
@@ -3440,7 +3446,7 @@
       </c>
       <c r="H8" s="32" t="str">
         <f>IF($F9&lt;&gt;"","○","")</f>
-        <v/>
+        <v>○</v>
       </c>
       <c r="I8" s="30">
         <f>COUNTIF($K8:$AC8,"○")</f>
@@ -3486,23 +3492,25 @@
         <f>C8</f>
         <v>CentOSのインストール</v>
       </c>
-      <c r="D9" s="35" t="str">
+      <c r="D9" s="35">
         <f>IF(COUNTA($K9:$AC9),IF(COUNTIF($K9:$AC9,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K9:$AC9,0)),INDEX($K$3:$AC$3,MATCH("◆",$K9:$AC9,0))),"")</f>
-        <v/>
+        <v>42564</v>
       </c>
       <c r="E9" s="47"/>
-      <c r="F9" s="35" t="str">
+      <c r="F9" s="35">
         <f>IF(COUNTIF($K9:$AC9,"◆"),INDEX($K$3:$AC$3,MATCH("◆",$K9:$AC9,0)),"")</f>
-        <v/>
+        <v>42564</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="32" t="str">
         <f>IF($F9&lt;&gt;"","○","")</f>
-        <v/>
+        <v>○</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="36"/>
-      <c r="K9" s="43"/>
+      <c r="K9" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -3594,9 +3602,9 @@
         <f>C10</f>
         <v>PostgreSQLのインストール</v>
       </c>
-      <c r="D11" s="35" t="str">
+      <c r="D11" s="35">
         <f>IF(COUNTA($K11:$AC11),IF(COUNTIF($K11:$AC11,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K11:$AC11,0)),INDEX($K$3:$AC$3,MATCH("◆",$K11:$AC11,0))),"")</f>
-        <v/>
+        <v>42564</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="35" t="str">
@@ -3610,7 +3618,9 @@
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="36"/>
-      <c r="K11" s="25"/>
+      <c r="K11" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -4026,9 +4036,9 @@
         <f>C18</f>
         <v>Apache Solrの設定</v>
       </c>
-      <c r="D19" s="35" t="str">
+      <c r="D19" s="35">
         <f>IF(COUNTA($K19:$AC19),IF(COUNTIF($K19:$AC19,"◇"),INDEX($K$3:$AC$3,MATCH("◇",$K19:$AC19,0)),INDEX($K$3:$AC$3,MATCH("◆",$K19:$AC19,0))),"")</f>
-        <v/>
+        <v>42564</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="35" t="str">
@@ -4042,7 +4052,9 @@
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="25"/>
+      <c r="K19" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
